--- a/forms/contact/create_household_member.xlsx
+++ b/forms/contact/create_household_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7110" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="14400" windowHeight="4867" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
     <t>New Household Member</t>
   </si>
   <si>
-    <t>create_household_member</t>
+    <t>contact:create_household_member</t>
   </si>
   <si>
     <t>pages</t>
@@ -549,10 +549,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -598,21 +598,28 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -627,11 +634,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -642,9 +649,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,14 +663,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -673,9 +671,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -696,23 +694,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,23 +715,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,7 +787,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,13 +823,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,97 +931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,43 +949,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,6 +1038,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1079,15 +1088,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1106,146 +1106,146 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1717,7 +1717,7 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.2916666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="17.2916666666667" defaultRowHeight="13.85"/>
   <cols>
     <col min="1" max="1" width="19.7083333333333" customWidth="1"/>
     <col min="2" max="2" width="25.5666666666667" customWidth="1"/>
@@ -1738,7 +1738,7 @@
     <col min="1014" max="1024" width="9.14166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:27">
+    <row r="1" ht="14.25" customHeight="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="1:27">
+    <row r="2" ht="14.25" customHeight="1" spans="1:27">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1874,7 +1874,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" customHeight="1" spans="1:27">
+    <row r="4" ht="14.25" customHeight="1" spans="1:27">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1913,7 +1913,7 @@
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" customHeight="1" spans="1:27">
+    <row r="5" ht="14.25" customHeight="1" spans="1:27">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" customHeight="1" spans="1:27">
+    <row r="6" ht="14.25" customHeight="1" spans="1:27">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2022,7 +2022,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" customHeight="1" spans="1:27">
+    <row r="8" ht="14.25" customHeight="1" spans="1:27">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2053,7 +2053,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" customHeight="1" spans="1:27">
+    <row r="9" ht="14.25" customHeight="1" spans="1:27">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" customHeight="1" spans="1:27">
+    <row r="10" ht="14.25" customHeight="1" spans="1:27">
       <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
@@ -2131,7 +2131,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" customHeight="1" spans="1:27">
+    <row r="11" ht="14.25" customHeight="1" spans="1:27">
       <c r="A11" s="12" t="s">
         <v>28</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" customHeight="1" spans="1:27">
+    <row r="12" ht="14.25" customHeight="1" spans="1:27">
       <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" customHeight="1" spans="1:13">
+    <row r="15" ht="14.25" customHeight="1" spans="1:13">
       <c r="A15" s="13" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2284,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" customHeight="1" spans="1:13">
+    <row r="16" ht="14.25" customHeight="1" spans="1:13">
       <c r="A16" s="13" t="s">
         <v>43</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" customHeight="1" spans="1:13">
+    <row r="17" ht="14.25" customHeight="1" spans="1:13">
       <c r="A17" s="13" t="s">
         <v>38</v>
       </c>
@@ -2336,7 +2336,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" customHeight="1" spans="1:13">
+    <row r="18" ht="14.25" customHeight="1" spans="1:13">
       <c r="A18" s="13" t="s">
         <v>52</v>
       </c>
@@ -2363,7 +2363,7 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" customHeight="1" spans="1:13">
+    <row r="19" ht="14.25" customHeight="1" spans="1:13">
       <c r="A19" s="13" t="s">
         <v>56</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" customHeight="1" spans="1:13">
+    <row r="20" ht="14.25" customHeight="1" spans="1:13">
       <c r="A20" s="13" t="s">
         <v>61</v>
       </c>
@@ -2423,7 +2423,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" customHeight="1" spans="1:13">
+    <row r="21" ht="14.25" customHeight="1" spans="1:13">
       <c r="A21" s="13" t="s">
         <v>66</v>
       </c>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" customHeight="1" spans="1:13">
+    <row r="22" ht="14.25" customHeight="1" spans="1:13">
       <c r="A22" s="13" t="s">
         <v>38</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:13">
+    <row r="23" ht="14.25" customHeight="1" spans="1:13">
       <c r="A23" s="13" t="s">
         <v>38</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" customHeight="1" spans="1:13">
+    <row r="24" ht="14.25" customHeight="1" spans="1:13">
       <c r="A24" s="13" t="s">
         <v>38</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" customHeight="1" spans="1:13">
+    <row r="25" ht="14.25" customHeight="1" spans="1:13">
       <c r="A25" s="13" t="s">
         <v>38</v>
       </c>
@@ -2550,7 +2550,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" customHeight="1" spans="1:13">
+    <row r="26" ht="14.25" customHeight="1" spans="1:13">
       <c r="A26" s="13" t="s">
         <v>38</v>
       </c>
@@ -2573,7 +2573,7 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" customHeight="1" spans="1:13">
+    <row r="27" ht="14.25" customHeight="1" spans="1:13">
       <c r="A27" s="13" t="s">
         <v>38</v>
       </c>
@@ -2596,7 +2596,7 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" customHeight="1" spans="1:13">
+    <row r="28" ht="14.25" customHeight="1" spans="1:13">
       <c r="A28" s="13" t="s">
         <v>38</v>
       </c>
@@ -2619,7 +2619,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" customHeight="1" spans="1:13">
+    <row r="29" ht="14.25" customHeight="1" spans="1:13">
       <c r="A29" s="13" t="s">
         <v>38</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" customHeight="1" spans="1:13">
+    <row r="30" ht="14.25" customHeight="1" spans="1:13">
       <c r="A30" s="13" t="s">
         <v>88</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" customHeight="1" spans="1:13">
+    <row r="31" ht="14.25" customHeight="1" spans="1:13">
       <c r="A31" s="13" t="s">
         <v>92</v>
       </c>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="M31" s="13"/>
     </row>
-    <row r="32" customHeight="1" spans="1:13">
+    <row r="32" ht="14.25" customHeight="1" spans="1:13">
       <c r="A32" s="13" t="s">
         <v>92</v>
       </c>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="M32" s="13"/>
     </row>
-    <row r="33" customHeight="1" spans="1:13">
+    <row r="33" ht="14.25" customHeight="1" spans="1:13">
       <c r="A33" s="13" t="s">
         <v>102</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
     </row>
-    <row r="34" customHeight="1" spans="1:13">
+    <row r="34" ht="14.25" customHeight="1" spans="1:13">
       <c r="A34" s="13" t="s">
         <v>106</v>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" customHeight="1" spans="1:27">
+    <row r="35" ht="14.25" customHeight="1" spans="1:27">
       <c r="A35" s="14" t="s">
         <v>15</v>
       </c>
@@ -2823,7 +2823,7 @@
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
     </row>
-    <row r="36" customHeight="1" spans="1:27">
+    <row r="36" ht="14.25" customHeight="1" spans="1:27">
       <c r="A36" s="16" t="s">
         <v>28</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
     </row>
-    <row r="37" customHeight="1" spans="1:27">
+    <row r="37" ht="14.25" customHeight="1" spans="1:27">
       <c r="A37" s="16" t="s">
         <v>28</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
     </row>
-    <row r="38" customHeight="1" spans="1:27">
+    <row r="38" ht="14.25" customHeight="1" spans="1:27">
       <c r="A38" s="16" t="s">
         <v>28</v>
       </c>
@@ -2936,7 +2936,7 @@
       <c r="Z38" s="10"/>
       <c r="AA38" s="10"/>
     </row>
-    <row r="39" customHeight="1" spans="1:27">
+    <row r="39" ht="14.25" customHeight="1" spans="1:27">
       <c r="A39" s="16" t="s">
         <v>38</v>
       </c>
@@ -2973,7 +2973,7 @@
       <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
     </row>
-    <row r="40" customHeight="1" spans="1:27">
+    <row r="40" ht="14.25" customHeight="1" spans="1:27">
       <c r="A40" s="16" t="s">
         <v>38</v>
       </c>
@@ -3008,7 +3008,7 @@
       <c r="Z40" s="10"/>
       <c r="AA40" s="10"/>
     </row>
-    <row r="41" customHeight="1" spans="1:27">
+    <row r="41" ht="14.25" customHeight="1" spans="1:27">
       <c r="A41" s="16" t="s">
         <v>38</v>
       </c>
@@ -3043,7 +3043,7 @@
       <c r="Z41" s="10"/>
       <c r="AA41" s="10"/>
     </row>
-    <row r="42" customHeight="1" spans="1:27">
+    <row r="42" ht="14.25" customHeight="1" spans="1:27">
       <c r="A42" s="10" t="s">
         <v>25</v>
       </c>
@@ -3074,7 +3074,7 @@
       <c r="Z42" s="10"/>
       <c r="AA42" s="10"/>
     </row>
-    <row r="43" customHeight="1" spans="1:27">
+    <row r="43" ht="14.25" customHeight="1" spans="1:27">
       <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
@@ -3105,7 +3105,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" customHeight="1" spans="1:27">
+    <row r="44" ht="14.25" customHeight="1" spans="1:27">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="8"/>
@@ -3134,7 +3134,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" customHeight="1" spans="1:27">
+    <row r="45" ht="14.25" customHeight="1" spans="1:27">
       <c r="A45" s="10"/>
       <c r="B45" s="2"/>
       <c r="C45" s="8"/>
@@ -3163,7 +3163,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" customHeight="1" spans="1:27">
+    <row r="46" ht="14.25" customHeight="1" spans="1:27">
       <c r="A46" s="10"/>
       <c r="B46" s="2"/>
       <c r="C46" s="8"/>
@@ -3192,7 +3192,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" customHeight="1" spans="1:27">
+    <row r="47" ht="14.25" customHeight="1" spans="1:27">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="8"/>
@@ -3221,7 +3221,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" customHeight="1" spans="1:27">
+    <row r="48" ht="14.25" customHeight="1" spans="1:27">
       <c r="A48" s="19"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3250,7 +3250,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" customHeight="1" spans="1:27">
+    <row r="49" ht="14.25" customHeight="1" spans="1:27">
       <c r="A49" s="19"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3279,7 +3279,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" customHeight="1" spans="1:27">
+    <row r="50" ht="14.25" customHeight="1" spans="1:27">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="8"/>
@@ -3395,7 +3395,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" customHeight="1" spans="1:27">
+    <row r="54" ht="14.25" customHeight="1" spans="1:27">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="8"/>
@@ -3424,7 +3424,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" customHeight="1" spans="1:27">
+    <row r="55" ht="14.25" customHeight="1" spans="1:27">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="8"/>
@@ -3453,7 +3453,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" customHeight="1" spans="1:27">
+    <row r="56" ht="14.25" customHeight="1" spans="1:27">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -30829,7 +30829,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4916666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.4916666666667" defaultRowHeight="13.85"/>
   <cols>
     <col min="1" max="1" width="22.4333333333333" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -30840,7 +30840,7 @@
     <col min="24" max="26" width="14.5666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:23">
+    <row r="1" ht="14.25" customHeight="1" spans="1:23">
       <c r="A1" s="4" t="s">
         <v>123</v>
       </c>
@@ -30873,7 +30873,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="1:23">
+    <row r="2" ht="14.25" customHeight="1" spans="1:23">
       <c r="A2" s="6" t="s">
         <v>124</v>
       </c>
@@ -30906,7 +30906,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:23">
+    <row r="3" ht="14.25" customHeight="1" spans="1:23">
       <c r="A3" s="6" t="s">
         <v>124</v>
       </c>
@@ -30939,7 +30939,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" customHeight="1" spans="1:23">
+    <row r="4" ht="14.25" customHeight="1" spans="1:23">
       <c r="A4" s="6" t="s">
         <v>131</v>
       </c>
@@ -30972,7 +30972,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" customHeight="1" spans="1:23">
+    <row r="5" ht="14.25" customHeight="1" spans="1:23">
       <c r="A5" s="6" t="s">
         <v>131</v>
       </c>
@@ -31005,7 +31005,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" customHeight="1" spans="1:23">
+    <row r="6" ht="14.25" customHeight="1" spans="1:23">
       <c r="A6" s="6" t="s">
         <v>138</v>
       </c>
@@ -31038,7 +31038,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" customHeight="1" spans="1:23">
+    <row r="7" ht="14.25" customHeight="1" spans="1:23">
       <c r="A7" s="6" t="s">
         <v>138</v>
       </c>
@@ -31071,7 +31071,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" customHeight="1" spans="1:23">
+    <row r="8" ht="14.25" customHeight="1" spans="1:23">
       <c r="A8" s="6" t="s">
         <v>141</v>
       </c>
@@ -31104,7 +31104,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" customHeight="1" spans="1:23">
+    <row r="9" ht="14.25" customHeight="1" spans="1:23">
       <c r="A9" s="6" t="s">
         <v>141</v>
       </c>
@@ -31137,7 +31137,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" customHeight="1" spans="1:23">
+    <row r="10" ht="14.25" customHeight="1" spans="1:23">
       <c r="A10" s="6" t="s">
         <v>141</v>
       </c>
@@ -31170,7 +31170,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" customHeight="1" spans="1:23">
+    <row r="11" ht="14.25" customHeight="1" spans="1:23">
       <c r="A11" s="6" t="s">
         <v>141</v>
       </c>
@@ -31203,7 +31203,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" customHeight="1" spans="1:23">
+    <row r="12" ht="14.25" customHeight="1" spans="1:23">
       <c r="A12" s="6" t="s">
         <v>141</v>
       </c>
@@ -31236,7 +31236,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" customHeight="1" spans="1:23">
+    <row r="13" ht="14.25" customHeight="1" spans="1:23">
       <c r="A13" s="6" t="s">
         <v>141</v>
       </c>
@@ -31269,7 +31269,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" ht="13.9" spans="1:4">
       <c r="A14" s="8" t="s">
         <v>53</v>
       </c>
@@ -31283,7 +31283,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" ht="13.9" spans="1:4">
       <c r="A15" s="8" t="s">
         <v>53</v>
       </c>
@@ -32288,10 +32288,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.2916666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="17.2916666666667" defaultRowHeight="13.85"/>
   <cols>
     <col min="1" max="1" width="28.1416666666667" customWidth="1"/>
     <col min="2" max="2" width="18.0833333333333" customWidth="1"/>
@@ -32303,7 +32303,7 @@
     <col min="15" max="26" width="15.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:26">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
@@ -32341,7 +32341,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="1:26">
+    <row r="2" ht="14.25" customHeight="1" spans="1:26">
       <c r="A2" s="2" t="s">
         <v>171</v>
       </c>
@@ -32350,7 +32350,7 @@
       </c>
       <c r="C2" s="3" t="str">
         <f ca="1">TEXT(NOW(),"yyyy-mm-dd_HH-MM")</f>
-        <v>2024-08-27 0-23</v>
+        <v>2024-09-02 23-51</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -32380,7 +32380,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:26">
+    <row r="3" ht="14.25" customHeight="1" spans="1:26">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -32408,7 +32408,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" customHeight="1" spans="1:26">
+    <row r="4" ht="14.25" customHeight="1" spans="1:26">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -32436,7 +32436,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" customHeight="1" spans="1:26">
+    <row r="5" ht="14.25" customHeight="1" spans="1:26">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -32464,7 +32464,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" customHeight="1" spans="1:26">
+    <row r="6" ht="14.25" customHeight="1" spans="1:26">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -32492,7 +32492,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" customHeight="1" spans="1:26">
+    <row r="7" ht="14.25" customHeight="1" spans="1:26">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -32520,7 +32520,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" customHeight="1" spans="1:26">
+    <row r="8" ht="14.25" customHeight="1" spans="1:26">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -32548,7 +32548,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" customHeight="1" spans="1:26">
+    <row r="9" ht="14.25" customHeight="1" spans="1:26">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -32576,7 +32576,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" customHeight="1" spans="1:26">
+    <row r="10" ht="14.25" customHeight="1" spans="1:26">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -32604,7 +32604,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" customHeight="1" spans="1:26">
+    <row r="11" ht="14.25" customHeight="1" spans="1:26">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -32632,7 +32632,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" customHeight="1" spans="1:26">
+    <row r="12" ht="14.25" customHeight="1" spans="1:26">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -32660,7 +32660,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" customHeight="1" spans="1:26">
+    <row r="13" ht="14.25" customHeight="1" spans="1:26">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -32688,7 +32688,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" customHeight="1" spans="1:26">
+    <row r="14" ht="14.25" customHeight="1" spans="1:26">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -32716,7 +32716,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" customHeight="1" spans="1:26">
+    <row r="15" ht="14.25" customHeight="1" spans="1:26">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -32744,7 +32744,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" customHeight="1" spans="1:26">
+    <row r="16" ht="14.25" customHeight="1" spans="1:26">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -32772,7 +32772,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" customHeight="1" spans="1:26">
+    <row r="17" ht="14.25" customHeight="1" spans="1:26">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -32800,7 +32800,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" customHeight="1" spans="1:26">
+    <row r="18" ht="14.25" customHeight="1" spans="1:26">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -32828,7 +32828,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" customHeight="1" spans="1:26">
+    <row r="19" ht="14.25" customHeight="1" spans="1:26">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -32856,7 +32856,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" customHeight="1" spans="1:26">
+    <row r="20" ht="14.25" customHeight="1" spans="1:26">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -32884,7 +32884,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" customHeight="1" spans="1:26">
+    <row r="21" ht="14.25" customHeight="1" spans="1:26">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
